--- a/Consultant_Active_Reports/Active_Candidates_Nick_Chaplin.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Nick_Chaplin.xlsx
@@ -602,11 +602,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45987</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="7">
@@ -630,11 +630,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="8">
@@ -658,11 +658,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45989</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="9">
@@ -742,11 +742,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45980</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="12">

--- a/Consultant_Active_Reports/Active_Candidates_Nick_Chaplin.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Nick_Chaplin.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,114 +499,114 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CodeRabbit</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Commercial AE x5 Bay Area</t>
+          <t>Enterprise AE PST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jeffrey Pereira</t>
+          <t>Steve Clark</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45994</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>760</v>
+        <v>687</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>CodeRabbit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Head of Sales (NA)</t>
+          <t>Commercial AE x5 Bay Area</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>James Burke</t>
+          <t>Jeffrey Pereira</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>778</v>
+        <v>716</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Honeycomb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SDR Dubai</t>
+          <t>Enterprise AE U.S x4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ahmed Al Kabekly</t>
+          <t>Matthew Lange</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45966</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SDR Dubai</t>
+          <t>Head of Sales (NA)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marc Andraos</t>
+          <t>James Burke</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45996</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Álvaro García</t>
+          <t>Ahmed Al Kabekly</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45993</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -676,12 +676,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SDR Houston</t>
+          <t>SDR Dubai</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alton Stephens</t>
+          <t>Marc Andraos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,12 +690,12 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45973</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -704,21 +704,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SDR Houston</t>
+          <t>SDR Dubai</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Max Wilson</t>
+          <t>Álvaro García</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="11">
@@ -737,43 +737,99 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nhat Le</t>
+          <t>Alton Stephens</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45992</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>780</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Energy Robotics</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SDR Houston</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Max Wilson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3rd Interview</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>780</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Energy Robotics</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SDR Houston</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Nhat Le</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3rd Interview</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>810</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>groundcover</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Mid-Market AE (Observability in NYC, Boston, Denver, SF)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Jeffrey Pereira</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>45988</v>
       </c>
     </row>
